--- a/JavaScript/48. Cas - Test/Test-JavaScript-2.deo.xlsx
+++ b/JavaScript/48. Cas - Test/Test-JavaScript-2.deo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dženan Košuta\GitHub\IT Camp - 2. grupa\JavaScript\48. Cas - Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE8111A-A8C2-4C04-A17F-A7C6A9F26F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30951A57-FCA5-467D-8BBF-4C0FFD98F2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,12 +600,18 @@
       <c r="C4" s="2">
         <v>32</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
       <c r="G4" s="4">
         <f>SUM(C4:F4)</f>
-        <v>32</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -618,12 +624,18 @@
       <c r="C5" s="2">
         <v>37</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="3">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3">
+        <v>20</v>
+      </c>
       <c r="G5" s="4">
         <f t="shared" ref="G5:G21" si="0">SUM(C5:F5)</f>
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -636,12 +648,18 @@
       <c r="C6" s="2">
         <v>19</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="3">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -654,12 +672,18 @@
       <c r="C7" s="2">
         <v>41</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3">
+        <v>16</v>
+      </c>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -672,12 +696,18 @@
       <c r="C8" s="2">
         <v>34</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3">
+        <v>20</v>
+      </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -690,12 +720,18 @@
       <c r="C9" s="2">
         <v>23</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="3">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3">
+        <v>18</v>
+      </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -708,12 +744,18 @@
       <c r="C10" s="2">
         <v>13</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="3">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3">
+        <v>20</v>
+      </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -726,12 +768,18 @@
       <c r="C11" s="2">
         <v>14</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" s="5">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3">
+        <v>20</v>
+      </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -744,12 +792,18 @@
       <c r="C12" s="2">
         <v>26</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="3">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3">
+        <v>20</v>
+      </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -762,12 +816,18 @@
       <c r="C13" s="2">
         <v>26</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="3">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3">
+        <v>20</v>
+      </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -780,12 +840,18 @@
       <c r="C14" s="2">
         <v>26</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="3">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3">
+        <v>20</v>
+      </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -798,12 +864,18 @@
       <c r="C15" s="2">
         <v>34</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="3">
+        <v>20</v>
+      </c>
+      <c r="E15" s="5">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3">
+        <v>20</v>
+      </c>
       <c r="G15" s="4">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -816,12 +888,18 @@
       <c r="C16" s="2">
         <v>27</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="3">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3">
+        <v>20</v>
+      </c>
       <c r="G16" s="4">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -834,12 +912,18 @@
       <c r="C17" s="2">
         <v>33</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="3">
+        <v>20</v>
+      </c>
+      <c r="E17" s="5">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3">
+        <v>18</v>
+      </c>
       <c r="G17" s="4">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -852,12 +936,18 @@
       <c r="C18" s="2">
         <v>40</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="3">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3">
+        <v>17</v>
+      </c>
       <c r="G18" s="4">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -870,12 +960,18 @@
       <c r="C19" s="2">
         <v>12</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
+      <c r="D19" s="3">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3">
+        <v>20</v>
+      </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
